--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1790.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1790.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.189210144697956</v>
+        <v>0.7007990479469299</v>
       </c>
       <c r="B1">
-        <v>2.339583884966059</v>
+        <v>1.388329863548279</v>
       </c>
       <c r="C1">
-        <v>5.392881549179416</v>
+        <v>4.149904727935791</v>
       </c>
       <c r="D1">
-        <v>2.431682250385131</v>
+        <v>2.564904451370239</v>
       </c>
       <c r="E1">
-        <v>1.093000815881601</v>
+        <v>0.5634708404541016</v>
       </c>
     </row>
   </sheetData>
